--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74FAD3D-B40F-4791-85E5-5265B30C10B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6443D21D-9511-4037-9D72-65E115F69CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>NRO</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>10.12</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +704,9 @@
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -735,7 +740,9 @@
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -769,7 +776,9 @@
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -786,7 +795,9 @@
       <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -803,7 +814,9 @@
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -820,7 +833,9 @@
       <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6443D21D-9511-4037-9D72-65E115F69CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344BC036-2B44-44B3-8F18-897AA98F5414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="1770" windowWidth="18795" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>NRO</t>
   </si>
@@ -687,7 +687,9 @@
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344BC036-2B44-44B3-8F18-897AA98F5414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A37D991-8AC9-4D15-BF58-63A50F067717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1770" windowWidth="18795" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$K$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>NRO</t>
   </si>
@@ -39,9 +39,6 @@
     <t>CEPS-UNI</t>
   </si>
   <si>
-    <t>Profesor: Gustavo Corone</t>
-  </si>
-  <si>
     <t>Curso: 52221 - FUNDAMENTOS DE PROGRAMACIÓN</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Profesor: Eric Gustavo Coronel Castillo</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +596,7 @@
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
@@ -602,7 +605,7 @@
     <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="14" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="15"/>
@@ -612,7 +615,7 @@
     <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="15"/>
@@ -622,7 +625,7 @@
     <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="15"/>
@@ -632,7 +635,7 @@
     <row r="6" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="15"/>
@@ -653,31 +656,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="H8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -704,10 +707,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -723,9 +726,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -740,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -759,9 +764,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -776,10 +783,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -795,10 +802,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -814,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -833,10 +840,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -973,6 +980,6 @@
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A37D991-8AC9-4D15-BF58-63A50F067717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310C4EB5-DE42-4905-B8DD-321C6E0808C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$K$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$B$1:$K$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>NRO</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Horario: MA y JU de 19 - 22 Horas</t>
   </si>
   <si>
-    <t>Fecha Inicio: 12.11.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha Fin: </t>
-  </si>
-  <si>
     <t>BACA TAPARA BLANCA MILAGROS</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>17.11</t>
   </si>
   <si>
-    <t>12.11</t>
-  </si>
-  <si>
     <t>19.11</t>
   </si>
   <si>
@@ -105,20 +96,20 @@
     <t>10.12</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Profesor: Eric Gustavo Coronel Castillo</t>
+  </si>
+  <si>
+    <t>Fecha Inicio: 17.11.2020</t>
+  </si>
+  <si>
+    <t>Fecha Fin: 10.12.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +137,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.749992370372631"/>
@@ -171,7 +154,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="26"/>
       <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -221,12 +204,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,9 +219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -255,18 +234,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -282,18 +258,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Énfasis5" xfId="1" builtinId="45"/>
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,408 +550,254 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" style="1" customWidth="1"/>
     <col min="7" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="14" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="14" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>10</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>11</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>12</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>16</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>17</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:F25">
-    <sortCondition ref="B9:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:F17">
+    <sortCondition ref="C9:C17"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310C4EB5-DE42-4905-B8DD-321C6E0808C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B541BC-D475-4C9E-B27B-83080E9C4151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
+    <sheet name="PARTICIPACION" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$B$1:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PARTICIPACION!$B$1:$K$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>NRO</t>
   </si>
@@ -103,6 +105,18 @@
   </si>
   <si>
     <t>Fecha Fin: 10.12.2020</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
 </sst>
 </file>
@@ -552,8 +566,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +688,9 @@
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="18"/>
@@ -690,7 +706,9 @@
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="18"/>
@@ -706,7 +724,9 @@
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="18"/>
@@ -738,6 +758,278 @@
       <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:F17">
+    <sortCondition ref="C9:C17"/>
+  </sortState>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661D4C7B-06E2-47F7-B6EA-F3A87E87F398}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="17" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -786,7 +1078,9 @@
       <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="18"/>
@@ -796,9 +1090,6 @@
       <c r="K17" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:F17">
-    <sortCondition ref="C9:C17"/>
-  </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B541BC-D475-4C9E-B27B-83080E9C4151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977ED51-8CBC-40A1-B33C-9E38B181E740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>NRO</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>III</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -566,8 +569,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +675,9 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="18"/>
@@ -742,7 +747,9 @@
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="18"/>
@@ -776,7 +783,9 @@
       <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="18"/>
@@ -838,8 +847,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977ED51-8CBC-40A1-B33C-9E38B181E740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0AC96-BE97-44A9-9B84-8A305E151832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>NRO</t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,9 @@
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -714,7 +716,9 @@
       <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
@@ -732,7 +736,9 @@
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -768,7 +774,9 @@
       <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -804,7 +812,9 @@
       <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -822,7 +832,9 @@
       <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0AC96-BE97-44A9-9B84-8A305E151832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7EFF0-A56A-4772-AEEA-6B522A0D762B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>NRO</t>
   </si>
@@ -569,7 +569,7 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -859,8 +859,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,9 @@
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -1020,7 +1022,9 @@
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -1084,7 +1088,9 @@
         <v>12</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7EFF0-A56A-4772-AEEA-6B522A0D762B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF70BD4-A7B1-4D55-9194-0CF8EFEF1CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>NRO</t>
   </si>
@@ -569,8 +569,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,9 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -756,7 +758,9 @@
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -794,7 +798,9 @@
       <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -859,7 +865,7 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF70BD4-A7B1-4D55-9194-0CF8EFEF1CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E630B-64AD-45E8-A533-29BDCC40B1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>NRO</t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,9 @@
       <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -721,7 +723,9 @@
       <c r="E11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
       <c r="I11" s="18"/>
@@ -741,7 +745,9 @@
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -781,7 +787,9 @@
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -801,7 +809,9 @@
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -821,7 +831,9 @@
       <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -841,7 +853,9 @@
       <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E630B-64AD-45E8-A533-29BDCC40B1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200AB17B-5AC6-40D4-B0E3-6FD36CDED9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>NRO</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -879,8 +882,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1048,9 @@
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -1077,7 +1082,9 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -1111,7 +1118,9 @@
       <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -1129,7 +1138,9 @@
         <v>26</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200AB17B-5AC6-40D4-B0E3-6FD36CDED9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA970DCA-6709-416E-B19B-1FE0D9ABE89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>NRO</t>
   </si>
@@ -572,8 +572,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,9 @@
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -770,7 +772,9 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -882,8 +886,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA970DCA-6709-416E-B19B-1FE0D9ABE89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEBAC74-C2A4-4F45-ADEA-9284BC9ADBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t>NRO</t>
   </si>
@@ -228,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,6 +285,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,7 +579,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,8 +587,8 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="17" width="8.7109375" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -597,6 +603,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
@@ -606,6 +613,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
@@ -615,6 +623,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
@@ -624,6 +633,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
@@ -633,6 +643,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
@@ -687,11 +698,11 @@
       <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -709,11 +720,13 @@
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -722,20 +735,22 @@
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -753,11 +768,13 @@
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -775,11 +792,11 @@
       <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -797,11 +814,13 @@
       <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -819,11 +838,13 @@
       <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -841,11 +862,11 @@
       <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -863,11 +884,13 @@
       <c r="F17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:F17">

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEBAC74-C2A4-4F45-ADEA-9284BC9ADBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343607EA-AEB7-4D73-89F4-383BF8E135C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>NRO</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>|||</t>
   </si>
 </sst>
 </file>
@@ -578,7 +584,7 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -909,8 +915,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +925,8 @@
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="4" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="17" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
+    <col min="8" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -934,6 +941,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
@@ -943,6 +951,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
@@ -952,6 +961,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
@@ -961,6 +971,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
@@ -970,6 +981,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
@@ -1018,7 +1030,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1038,7 +1050,9 @@
         <v>27</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -1056,7 +1070,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="19"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1078,7 +1092,9 @@
       <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -1094,7 +1110,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -1112,7 +1128,9 @@
       <c r="F14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -1128,7 +1146,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -1148,7 +1166,7 @@
       <c r="F16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -1168,7 +1186,9 @@
       <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343607EA-AEB7-4D73-89F4-383BF8E135C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC4368-E69C-4637-A70D-60AD367E541B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
   <si>
     <t>NRO</t>
   </si>
@@ -584,8 +584,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,9 @@
       <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -798,7 +800,9 @@
       <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -868,7 +872,9 @@
       <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -915,7 +921,7 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC4368-E69C-4637-A70D-60AD367E541B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF201401-ACF5-4CAC-B660-1B6961D06A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t>NRO</t>
   </si>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,8 +295,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,7 +594,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +603,8 @@
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="17" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="22" customWidth="1"/>
+    <col min="9" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,6 +620,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
@@ -620,6 +631,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
@@ -630,6 +642,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
@@ -640,6 +653,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
@@ -650,6 +664,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
@@ -675,7 +690,7 @@
       <c r="G8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="17" t="s">
@@ -707,7 +722,9 @@
       <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -731,7 +748,7 @@
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -755,7 +772,9 @@
       <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -779,7 +798,9 @@
       <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -803,7 +824,7 @@
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -827,7 +848,9 @@
       <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -851,7 +874,9 @@
       <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -875,7 +900,9 @@
       <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -899,7 +926,9 @@
       <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF201401-ACF5-4CAC-B660-1B6961D06A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F094E0AE-0139-448F-9744-672126252ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
   <si>
     <t>NRO</t>
   </si>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,9 +292,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -304,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -594,7 +591,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,8 +599,8 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="22" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="21" hidden="1" customWidth="1"/>
     <col min="9" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -620,7 +617,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="22"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
@@ -631,7 +628,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="22"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
@@ -642,7 +639,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
@@ -653,7 +650,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
@@ -664,7 +661,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="22"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
@@ -690,7 +687,7 @@
       <c r="G8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="17" t="s">
@@ -722,12 +719,12 @@
       <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -748,10 +745,14 @@
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="H10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -772,12 +773,14 @@
       <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="H11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -798,12 +801,14 @@
       <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="H12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -824,10 +829,12 @@
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="H13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -848,12 +855,14 @@
       <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="H14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -874,12 +883,12 @@
       <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="H15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -900,12 +909,12 @@
       <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="H16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -926,12 +935,14 @@
       <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="H17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:F17">

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F094E0AE-0139-448F-9744-672126252ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5716AF9E-0AF6-4B44-A1EA-E1E990EF3A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>NRO</t>
   </si>
@@ -590,7 +590,7 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -961,8 +961,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,9 +970,11 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
-    <col min="8" max="17" width="8.7109375" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="16" customWidth="1"/>
+    <col min="10" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,6 +990,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
@@ -998,6 +1001,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
@@ -1008,6 +1012,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
@@ -1018,6 +1023,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
@@ -1028,6 +1034,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
@@ -1078,7 +1085,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
@@ -1100,7 +1107,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
@@ -1118,7 +1125,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="2"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
@@ -1142,7 +1149,9 @@
         <v>32</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
@@ -1158,7 +1167,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
@@ -1178,7 +1187,7 @@
         <v>31</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
@@ -1194,7 +1203,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="2"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
@@ -1214,7 +1223,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
     </row>
@@ -1236,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5716AF9E-0AF6-4B44-A1EA-E1E990EF3A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ED2F62-3E27-45A0-BEBD-01353A3AB1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
   <si>
     <t>NRO</t>
   </si>
@@ -590,8 +590,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,9 @@
       <c r="H9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
@@ -832,7 +834,9 @@
       <c r="H13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
@@ -886,7 +890,9 @@
       <c r="H15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
@@ -912,7 +918,9 @@
       <c r="H16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
@@ -961,7 +969,7 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1107,7 +1115,9 @@
         <v>31</v>
       </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
@@ -1150,7 +1160,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ED2F62-3E27-45A0-BEBD-01353A3AB1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0564D1E-9449-4AAD-B8BC-D9C3732BEDF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
   <si>
     <t>NRO</t>
   </si>
@@ -590,7 +590,7 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -601,7 +601,8 @@
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="4" max="7" width="8.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="21" hidden="1" customWidth="1"/>
-    <col min="9" max="17" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,7 +726,9 @@
       <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,8 +756,12 @@
       <c r="I10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -781,8 +788,12 @@
       <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -809,8 +820,12 @@
       <c r="I12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -837,7 +852,9 @@
       <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -865,8 +882,12 @@
       <c r="I14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -893,7 +914,9 @@
       <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -921,7 +944,9 @@
       <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -949,8 +974,12 @@
       <c r="I17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:F17">

--- a/JAVA-FUND-52221.xlsx
+++ b/JAVA-FUND-52221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\FUND-PROG\JAVA-FUND-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0564D1E-9449-4AAD-B8BC-D9C3732BEDF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BA6DE6-1C35-4DD1-9435-2D6F09AAFC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,10 +599,9 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="21" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="17" width="8.7109375" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="21" customWidth="1"/>
+    <col min="9" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -999,7 +998,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C4" sqref="C1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
